--- a/earlywarning-pom/earlywarning-config/src/baf-instances/61_Inst_Workspace_ISPRO.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/61_Inst_Workspace_ISPRO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
   <si>
     <t>Workspace</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t>ISPRO_TARGET</t>
+  </si>
+  <si>
+    <t>BL_ISPRO_000002</t>
+  </si>
+  <si>
+    <t>BL_ISPRO_000003</t>
+  </si>
+  <si>
+    <t>BL_ISPRO_000004</t>
+  </si>
+  <si>
+    <t>BL_ISPRO_000005</t>
+  </si>
+  <si>
+    <t>BL_ISPRO_000006</t>
+  </si>
+  <si>
+    <t>WS_ISPRO_BL_ISPRO_000002</t>
+  </si>
+  <si>
+    <t>WS_ISPRO_BL_ISPRO_000003</t>
+  </si>
+  <si>
+    <t>WS_ISPRO_BL_ISPRO_000004</t>
+  </si>
+  <si>
+    <t>WS_ISPRO_BL_ISPRO_000005</t>
+  </si>
+  <si>
+    <t>WS_ISPRO_BL_ISPRO_000006</t>
   </si>
 </sst>
 </file>
@@ -328,7 +358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -371,7 +407,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -424,7 +466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -467,7 +515,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -520,7 +574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -563,7 +623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -616,7 +682,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -659,7 +731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1100,20 +1178,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -1161,6 +1238,91 @@
       </c>
       <c r="F3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/61_Inst_Workspace_ISPRO.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/61_Inst_Workspace_ISPRO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>Workspace</t>
   </si>
@@ -210,12 +210,6 @@
     <t>Corporate</t>
   </si>
   <si>
-    <t>WS_ISPRO_CORPORATE</t>
-  </si>
-  <si>
-    <t>WS_ISPRO_CORPORATE_COUNTERPARTY_ISPRO</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_ISPRO</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>BL_ISPRO_000001</t>
   </si>
   <si>
-    <t>WS_ISPRO_CORPORATE_ISPRO_TARGET</t>
-  </si>
-  <si>
     <t>ISPRO_TARGET</t>
   </si>
   <si>
@@ -259,6 +250,18 @@
   </si>
   <si>
     <t>WS_ISPRO_BL_ISPRO_000006</t>
+  </si>
+  <si>
+    <t>WSISPROCORPORATE</t>
+  </si>
+  <si>
+    <t>WSISPROCORPORATE_COUNTERPARTY_ISPRO</t>
+  </si>
+  <si>
+    <t>WSISPROCORPORATE_ISPRO_TARGET</t>
+  </si>
+  <si>
+    <t>Ispro Corporate</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,10 +1085,10 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1153,19 +1156,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1228,16 +1231,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,16 +1248,16 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,16 +1265,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,16 +1282,16 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,16 +1299,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,16 +1316,16 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1383,19 +1386,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
